--- a/Stock_analysis/2026-01-23_etf_list.xlsx
+++ b/Stock_analysis/2026-01-23_etf_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study_Finance\Stock_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DAF4AE-F98B-43D4-AFC8-5BFEF8B8F000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA67E5D-BC24-4E6E-A94F-807B432B785F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="540">
   <si>
     <t>Ticker</t>
   </si>
@@ -58,54 +58,42 @@
     <t>ACE KRX금현물</t>
   </si>
   <si>
-    <t>381180</t>
-  </si>
-  <si>
-    <t>TIGER 미국필라델피아반도체나스닥</t>
-  </si>
-  <si>
-    <t>310970</t>
-  </si>
-  <si>
-    <t>TIGER MSCI Korea TR</t>
-  </si>
-  <si>
     <t>148020</t>
   </si>
   <si>
     <t>RISE 200</t>
   </si>
   <si>
-    <t>498400</t>
-  </si>
-  <si>
-    <t>KODEX 200타겟위클리커버드콜</t>
-  </si>
-  <si>
     <t>102780</t>
   </si>
   <si>
     <t>KODEX 삼성그룹</t>
   </si>
   <si>
-    <t>278540</t>
-  </si>
-  <si>
-    <t>KODEX MSCI Korea TR</t>
-  </si>
-  <si>
     <t>161510</t>
   </si>
   <si>
     <t>PLUS 고배당주</t>
   </si>
   <si>
+    <t>233740</t>
+  </si>
+  <si>
+    <t>KODEX 코스닥150레버리지</t>
+  </si>
+  <si>
     <t>305720</t>
   </si>
   <si>
     <t>KODEX 2차전지산업</t>
   </si>
   <si>
+    <t>229200</t>
+  </si>
+  <si>
+    <t>KODEX 코스닥150</t>
+  </si>
+  <si>
     <t>292150</t>
   </si>
   <si>
@@ -130,16 +118,10 @@
     <t>TIGER 2차전지테마</t>
   </si>
   <si>
-    <t>152100</t>
-  </si>
-  <si>
-    <t>PLUS 200</t>
-  </si>
-  <si>
-    <t>456600</t>
-  </si>
-  <si>
-    <t>TIME 글로벌AI인공지능액티브</t>
+    <t>0072R0</t>
+  </si>
+  <si>
+    <t>TIGER KRX금현물</t>
   </si>
   <si>
     <t>144600</t>
@@ -160,6 +142,12 @@
     <t>KODEX 로봇액티브</t>
   </si>
   <si>
+    <t>226490</t>
+  </si>
+  <si>
+    <t>KODEX 코스피</t>
+  </si>
+  <si>
     <t>462010</t>
   </si>
   <si>
@@ -190,22 +178,16 @@
     <t>TIGER 은행고배당플러스TOP10</t>
   </si>
   <si>
-    <t>139260</t>
-  </si>
-  <si>
-    <t>TIGER 200 IT</t>
-  </si>
-  <si>
     <t>069660</t>
   </si>
   <si>
     <t>KIWOOM 200</t>
   </si>
   <si>
-    <t>434730</t>
-  </si>
-  <si>
-    <t>HANARO 원자력iSelect</t>
+    <t>498410</t>
+  </si>
+  <si>
+    <t>KODEX 금융고배당TOP10타겟위클리커버드콜</t>
   </si>
   <si>
     <t>364980</t>
@@ -226,48 +208,48 @@
     <t>KODEX 은행</t>
   </si>
   <si>
+    <t>0148J0</t>
+  </si>
+  <si>
+    <t>TIGER 코리아휴머노이드로봇산업</t>
+  </si>
+  <si>
+    <t>102970</t>
+  </si>
+  <si>
+    <t>KODEX 증권</t>
+  </si>
+  <si>
     <t>132030</t>
   </si>
   <si>
     <t>KODEX 골드선물(H)</t>
   </si>
   <si>
+    <t>0052D0</t>
+  </si>
+  <si>
+    <t>TIGER 코리아배당다우존스</t>
+  </si>
+  <si>
+    <t>232080</t>
+  </si>
+  <si>
+    <t>TIGER 코스닥150</t>
+  </si>
+  <si>
+    <t>228790</t>
+  </si>
+  <si>
+    <t>TIGER 화장품</t>
+  </si>
+  <si>
     <t>469070</t>
   </si>
   <si>
     <t>RISE AI&amp;로봇</t>
   </si>
   <si>
-    <t>491010</t>
-  </si>
-  <si>
-    <t>TIGER 글로벌AI전력인프라액티브</t>
-  </si>
-  <si>
-    <t>488080</t>
-  </si>
-  <si>
-    <t>TIGER 반도체TOP10레버리지</t>
-  </si>
-  <si>
-    <t>423920</t>
-  </si>
-  <si>
-    <t>TIGER 미국필라델피아반도체레버리지(합성)</t>
-  </si>
-  <si>
-    <t>228790</t>
-  </si>
-  <si>
-    <t>TIGER 화장품</t>
-  </si>
-  <si>
-    <t>495850</t>
-  </si>
-  <si>
-    <t>KODEX 코리아밸류업</t>
-  </si>
-  <si>
     <t>361580</t>
   </si>
   <si>
@@ -280,12 +262,24 @@
     <t>TIGER 현대차그룹플러스</t>
   </si>
   <si>
+    <t>0105E0</t>
+  </si>
+  <si>
+    <t>SOL 코리아고배당</t>
+  </si>
+  <si>
     <t>237350</t>
   </si>
   <si>
     <t>KODEX 코스피100</t>
   </si>
   <si>
+    <t>441800</t>
+  </si>
+  <si>
+    <t>TIME Korea플러스배당액티브</t>
+  </si>
+  <si>
     <t>495050</t>
   </si>
   <si>
@@ -304,6 +298,18 @@
     <t>TIGER 코스피</t>
   </si>
   <si>
+    <t>394670</t>
+  </si>
+  <si>
+    <t>TIGER 글로벌리튬&amp;2차전지SOLACTIVE(합성)</t>
+  </si>
+  <si>
+    <t>307520</t>
+  </si>
+  <si>
+    <t>TIGER 지주회사</t>
+  </si>
+  <si>
     <t>295040</t>
   </si>
   <si>
@@ -322,6 +328,24 @@
     <t>KODEX 고배당주</t>
   </si>
   <si>
+    <t>302450</t>
+  </si>
+  <si>
+    <t>RISE 코스피</t>
+  </si>
+  <si>
+    <t>0091P0</t>
+  </si>
+  <si>
+    <t>TIGER 코리아원자력</t>
+  </si>
+  <si>
+    <t>0064K0</t>
+  </si>
+  <si>
+    <t>KODEX 금액티브</t>
+  </si>
+  <si>
     <t>461950</t>
   </si>
   <si>
@@ -334,12 +358,24 @@
     <t>RISE 2차전지액티브</t>
   </si>
   <si>
+    <t>475050</t>
+  </si>
+  <si>
+    <t>ACE KPOP포커스</t>
+  </si>
+  <si>
     <t>315960</t>
   </si>
   <si>
     <t>RISE 대형고배당10TR</t>
   </si>
   <si>
+    <t>0089D0</t>
+  </si>
+  <si>
+    <t>KODEX 금융고배당TOP10</t>
+  </si>
+  <si>
     <t>466930</t>
   </si>
   <si>
@@ -352,18 +388,6 @@
     <t>PLUS 고배당주위클리커버드콜</t>
   </si>
   <si>
-    <t>414780</t>
-  </si>
-  <si>
-    <t>TIGER 차이나과창판STAR50(합성)</t>
-  </si>
-  <si>
-    <t>396520</t>
-  </si>
-  <si>
-    <t>TIGER 차이나반도체FACTSET</t>
-  </si>
-  <si>
     <t>442580</t>
   </si>
   <si>
@@ -382,28 +406,16 @@
     <t>TIGER 200TR</t>
   </si>
   <si>
-    <t>496080</t>
-  </si>
-  <si>
-    <t>TIGER 코리아밸류업</t>
-  </si>
-  <si>
     <t>421320</t>
   </si>
   <si>
     <t>PLUS 우주항공&amp;UAM</t>
   </si>
   <si>
-    <t>471040</t>
-  </si>
-  <si>
-    <t>KoAct 글로벌AI&amp;로봇액티브</t>
-  </si>
-  <si>
-    <t>213610</t>
-  </si>
-  <si>
-    <t>KODEX 삼성그룹밸류</t>
+    <t>157500</t>
+  </si>
+  <si>
+    <t>TIGER 증권</t>
   </si>
   <si>
     <t>433500</t>
@@ -424,6 +436,12 @@
     <t>TIGER 레버리지</t>
   </si>
   <si>
+    <t>157490</t>
+  </si>
+  <si>
+    <t>TIGER 소프트웨어</t>
+  </si>
+  <si>
     <t>412570</t>
   </si>
   <si>
@@ -454,6 +472,12 @@
     <t>TIGER 골드선물(H)</t>
   </si>
   <si>
+    <t>270810</t>
+  </si>
+  <si>
+    <t>RISE 코스닥150</t>
+  </si>
+  <si>
     <t>267770</t>
   </si>
   <si>
@@ -472,64 +496,100 @@
     <t>RISE 수소경제테마</t>
   </si>
   <si>
+    <t>0098F0</t>
+  </si>
+  <si>
+    <t>KODEX K원자력SMR</t>
+  </si>
+  <si>
+    <t>0066W0</t>
+  </si>
+  <si>
+    <t>SOL 국제금</t>
+  </si>
+  <si>
     <t>332930</t>
   </si>
   <si>
     <t>HANARO 200TR</t>
   </si>
   <si>
+    <t>278240</t>
+  </si>
+  <si>
+    <t>RISE 코스닥150선물레버리지</t>
+  </si>
+  <si>
+    <t>0008T0</t>
+  </si>
+  <si>
+    <t>SOL 화장품TOP3플러스</t>
+  </si>
+  <si>
     <t>152870</t>
   </si>
   <si>
     <t>파워 200</t>
   </si>
   <si>
+    <t>203780</t>
+  </si>
+  <si>
+    <t>TIGER 미국나스닥바이오</t>
+  </si>
+  <si>
+    <t>0115E0</t>
+  </si>
+  <si>
+    <t>KODEX 코리아소버린AI</t>
+  </si>
+  <si>
     <t>469170</t>
   </si>
   <si>
     <t>ACE 포스코그룹포커스</t>
   </si>
   <si>
-    <t>411420</t>
-  </si>
-  <si>
-    <t>KODEX 미국나스닥AI테크액티브</t>
-  </si>
-  <si>
     <t>473640</t>
   </si>
   <si>
     <t>HANARO 글로벌금채굴기업</t>
   </si>
   <si>
+    <t>0104N0</t>
+  </si>
+  <si>
+    <t>TIGER 200타겟위클리커버드콜</t>
+  </si>
+  <si>
     <t>332500</t>
   </si>
   <si>
     <t>ACE 200TR</t>
   </si>
   <si>
-    <t>495230</t>
-  </si>
-  <si>
-    <t>KoAct 코리아밸류업액티브</t>
-  </si>
-  <si>
-    <t>423170</t>
-  </si>
-  <si>
-    <t>SOL 한국형글로벌반도체액티브</t>
-  </si>
-  <si>
-    <t>496090</t>
-  </si>
-  <si>
-    <t>KIWOOM 코리아밸류업</t>
-  </si>
-  <si>
-    <t>363580</t>
-  </si>
-  <si>
-    <t>KODEX 200IT TR</t>
+    <t>0092B0</t>
+  </si>
+  <si>
+    <t>SOL 한국원자력SMR</t>
+  </si>
+  <si>
+    <t>401470</t>
+  </si>
+  <si>
+    <t>KODEX 메타버스액티브</t>
+  </si>
+  <si>
+    <t>233160</t>
+  </si>
+  <si>
+    <t>TIGER 코스닥150 레버리지</t>
+  </si>
+  <si>
+    <t>0098N0</t>
+  </si>
+  <si>
+    <t>PLUS 자사주매입고배당주</t>
   </si>
   <si>
     <t>448100</t>
@@ -556,6 +616,12 @@
     <t>HANARO 200선물레버리지</t>
   </si>
   <si>
+    <t>395290</t>
+  </si>
+  <si>
+    <t>HANARO Fn K-POP&amp;미디어</t>
+  </si>
+  <si>
     <t>243880</t>
   </si>
   <si>
@@ -568,10 +634,40 @@
     <t>SOL 코리아밸류업TR</t>
   </si>
   <si>
-    <t>108450</t>
-  </si>
-  <si>
-    <t>ACE 삼성그룹섹터가중</t>
+    <t>150460</t>
+  </si>
+  <si>
+    <t>TIGER 중국소비테마</t>
+  </si>
+  <si>
+    <t>365000</t>
+  </si>
+  <si>
+    <t>TIGER 인터넷TOP10</t>
+  </si>
+  <si>
+    <t>447430</t>
+  </si>
+  <si>
+    <t>ACE 주주환원가치주액티브</t>
+  </si>
+  <si>
+    <t>332940</t>
+  </si>
+  <si>
+    <t>HANARO MSCI Korea TR</t>
+  </si>
+  <si>
+    <t>0022T0</t>
+  </si>
+  <si>
+    <t>SOL 국제금커버드콜액티브</t>
+  </si>
+  <si>
+    <t>400970</t>
+  </si>
+  <si>
+    <t>TIGER Fn메타버스</t>
   </si>
   <si>
     <t>210780</t>
@@ -580,30 +676,42 @@
     <t>TIGER 코스피고배당</t>
   </si>
   <si>
-    <t>491700</t>
-  </si>
-  <si>
-    <t>HK 200</t>
-  </si>
-  <si>
     <t>495330</t>
   </si>
   <si>
     <t>1Q 코리아밸류업</t>
   </si>
   <si>
+    <t>415920</t>
+  </si>
+  <si>
+    <t>PLUS 글로벌희토류&amp;전략자원생산기업</t>
+  </si>
+  <si>
     <t>211560</t>
   </si>
   <si>
     <t>TIGER 배당성장</t>
   </si>
   <si>
+    <t>0007G0</t>
+  </si>
+  <si>
+    <t>PLUS 글로벌원자력밸류체인</t>
+  </si>
+  <si>
     <t>395170</t>
   </si>
   <si>
     <t>KODEX Top10동일가중</t>
   </si>
   <si>
+    <t>0018C0</t>
+  </si>
+  <si>
+    <t>PLUS 고배당주위클리고정커버드콜</t>
+  </si>
+  <si>
     <t>337160</t>
   </si>
   <si>
@@ -616,22 +724,52 @@
     <t>KODEX 코리아배당성장</t>
   </si>
   <si>
+    <t>0007N0</t>
+  </si>
+  <si>
+    <t>아이엠에셋 200</t>
+  </si>
+  <si>
     <t>465330</t>
   </si>
   <si>
     <t>RISE 2차전지TOP10</t>
   </si>
   <si>
+    <t>0005D0</t>
+  </si>
+  <si>
+    <t>SOL 전고체배터리&amp;실리콘음극재</t>
+  </si>
+  <si>
+    <t>252400</t>
+  </si>
+  <si>
+    <t>RISE 200선물레버리지</t>
+  </si>
+  <si>
     <t>138520</t>
   </si>
   <si>
     <t>TIGER 삼성그룹</t>
   </si>
   <si>
-    <t>252400</t>
-  </si>
-  <si>
-    <t>RISE 200선물레버리지</t>
+    <t>476690</t>
+  </si>
+  <si>
+    <t>TIGER 글로벌비만치료제TOP2Plus</t>
+  </si>
+  <si>
+    <t>476070</t>
+  </si>
+  <si>
+    <t>KODEX 글로벌비만치료제TOP2 Plus</t>
+  </si>
+  <si>
+    <t>0138Y0</t>
+  </si>
+  <si>
+    <t>PLUS 금채권혼합</t>
   </si>
   <si>
     <t>479850</t>
@@ -640,34 +778,40 @@
     <t>HANARO K-뷰티</t>
   </si>
   <si>
+    <t>266360</t>
+  </si>
+  <si>
+    <t>KODEX K콘텐츠</t>
+  </si>
+  <si>
+    <t>322400</t>
+  </si>
+  <si>
+    <t>HANARO e커머스</t>
+  </si>
+  <si>
+    <t>495060</t>
+  </si>
+  <si>
+    <t>TIME 코리아밸류업액티브</t>
+  </si>
+  <si>
     <t>410870</t>
   </si>
   <si>
     <t>TIME K컬처액티브</t>
   </si>
   <si>
-    <t>122090</t>
-  </si>
-  <si>
-    <t>PLUS 코스피50</t>
-  </si>
-  <si>
-    <t>298770</t>
-  </si>
-  <si>
-    <t>KODEX 한국대만IT프리미어</t>
-  </si>
-  <si>
     <t>140700</t>
   </si>
   <si>
     <t>KODEX 보험</t>
   </si>
   <si>
-    <t>495040</t>
-  </si>
-  <si>
-    <t>PLUS 코리아밸류업</t>
+    <t>354500</t>
+  </si>
+  <si>
+    <t>ACE 코스닥150</t>
   </si>
   <si>
     <t>434960</t>
@@ -682,16 +826,46 @@
     <t>KODEX KRX300레버리지</t>
   </si>
   <si>
+    <t>448570</t>
+  </si>
+  <si>
+    <t>FOCUS AI코리아액티브</t>
+  </si>
+  <si>
     <t>139320</t>
   </si>
   <si>
     <t>TIGER 금은선물(H)</t>
   </si>
   <si>
-    <t>411540</t>
-  </si>
-  <si>
-    <t>SOL 200 Top10</t>
+    <t>495750</t>
+  </si>
+  <si>
+    <t>HANARO 코리아밸류업</t>
+  </si>
+  <si>
+    <t>0111J0</t>
+  </si>
+  <si>
+    <t>HANARO 증권고배당TOP3플러스</t>
+  </si>
+  <si>
+    <t>104530</t>
+  </si>
+  <si>
+    <t>KIWOOM 고배당</t>
+  </si>
+  <si>
+    <t>0098Z0</t>
+  </si>
+  <si>
+    <t>FOCUS 200</t>
+  </si>
+  <si>
+    <t>292190</t>
+  </si>
+  <si>
+    <t>KODEX KRX300</t>
   </si>
   <si>
     <t>491220</t>
@@ -700,10 +874,10 @@
     <t>PLUS 200TR</t>
   </si>
   <si>
-    <t>266370</t>
-  </si>
-  <si>
-    <t>KODEX IT</t>
+    <t>365040</t>
+  </si>
+  <si>
+    <t>TIGER AI코리아그로스액티브</t>
   </si>
   <si>
     <t>117700</t>
@@ -712,22 +886,16 @@
     <t>KODEX 건설</t>
   </si>
   <si>
-    <t>428510</t>
-  </si>
-  <si>
-    <t>KODEX 차이나AI테크액티브</t>
-  </si>
-  <si>
-    <t>479620</t>
-  </si>
-  <si>
-    <t>SOL 미국AI반도체칩메이커</t>
-  </si>
-  <si>
-    <t>495940</t>
-  </si>
-  <si>
-    <t>RISE 미국AI테크액티브</t>
+    <t>0104P0</t>
+  </si>
+  <si>
+    <t>TIGER 코리아배당다우존스위클리커버드콜</t>
+  </si>
+  <si>
+    <t>337140</t>
+  </si>
+  <si>
+    <t>KODEX 코스피대형주</t>
   </si>
   <si>
     <t>388280</t>
@@ -736,22 +904,46 @@
     <t>RISE K엔터&amp;여행레저</t>
   </si>
   <si>
+    <t>0112X0</t>
+  </si>
+  <si>
+    <t>마이티 200TR</t>
+  </si>
+  <si>
     <t>225130</t>
   </si>
   <si>
     <t>ACE 골드선물 레버리지(합성 H)</t>
   </si>
   <si>
+    <t>385590</t>
+  </si>
+  <si>
+    <t>ACE ESG액티브</t>
+  </si>
+  <si>
+    <t>457990</t>
+  </si>
+  <si>
+    <t>PLUS 태양광&amp;ESS</t>
+  </si>
+  <si>
+    <t>0139P0</t>
+  </si>
+  <si>
+    <t>ACE 고배당주</t>
+  </si>
+  <si>
     <t>152500</t>
   </si>
   <si>
     <t>ACE 레버리지</t>
   </si>
   <si>
-    <t>261140</t>
-  </si>
-  <si>
-    <t>TIGER 우선주</t>
+    <t>139220</t>
+  </si>
+  <si>
+    <t>TIGER 200 건설</t>
   </si>
   <si>
     <t>117460</t>
@@ -760,30 +952,12 @@
     <t>KODEX 에너지화학</t>
   </si>
   <si>
-    <t>139220</t>
-  </si>
-  <si>
-    <t>TIGER 200 건설</t>
-  </si>
-  <si>
     <t>498860</t>
   </si>
   <si>
     <t>RISE 코리아금융고배당</t>
   </si>
   <si>
-    <t>453950</t>
-  </si>
-  <si>
-    <t>TIGER TSMC파운드리밸류체인</t>
-  </si>
-  <si>
-    <t>473490</t>
-  </si>
-  <si>
-    <t>KIWOOM 글로벌AI반도체</t>
-  </si>
-  <si>
     <t>140950</t>
   </si>
   <si>
@@ -802,22 +976,10 @@
     <t>PLUS 200선물레버리지</t>
   </si>
   <si>
-    <t>469060</t>
-  </si>
-  <si>
-    <t>RISE 미국반도체NYSE</t>
-  </si>
-  <si>
-    <t>442260</t>
-  </si>
-  <si>
-    <t>마이티 다이나믹퀀트액티브</t>
-  </si>
-  <si>
-    <t>475070</t>
-  </si>
-  <si>
-    <t>KoAct 글로벌친환경전력인프라액티브</t>
+    <t>450910</t>
+  </si>
+  <si>
+    <t>SOL 코스닥150</t>
   </si>
   <si>
     <t>139270</t>
@@ -826,6 +988,18 @@
     <t>TIGER 200 금융</t>
   </si>
   <si>
+    <t>117680</t>
+  </si>
+  <si>
+    <t>KODEX 철강</t>
+  </si>
+  <si>
+    <t>0103T0</t>
+  </si>
+  <si>
+    <t>1Q K소버린AI</t>
+  </si>
+  <si>
     <t>385520</t>
   </si>
   <si>
@@ -838,16 +1012,34 @@
     <t>HANARO K고배당</t>
   </si>
   <si>
+    <t>139250</t>
+  </si>
+  <si>
+    <t>TIGER 200 에너지화학</t>
+  </si>
+  <si>
+    <t>0152E0</t>
+  </si>
+  <si>
+    <t>SOL 배당성향탑픽액티브</t>
+  </si>
+  <si>
     <t>105780</t>
   </si>
   <si>
     <t>RISE 5대그룹주</t>
   </si>
   <si>
-    <t>449690</t>
-  </si>
-  <si>
-    <t>TIGER 한중반도체(합성)</t>
+    <t>100910</t>
+  </si>
+  <si>
+    <t>KIWOOM KRX100</t>
+  </si>
+  <si>
+    <t>156080</t>
+  </si>
+  <si>
+    <t>KODEX MSCI Korea</t>
   </si>
   <si>
     <t>305050</t>
@@ -856,10 +1048,34 @@
     <t>ACE 코스피</t>
   </si>
   <si>
-    <t>497780</t>
-  </si>
-  <si>
-    <t>KoAct 미국천연가스인프라액티브</t>
+    <t>445690</t>
+  </si>
+  <si>
+    <t>BNK 주주가치액티브</t>
+  </si>
+  <si>
+    <t>316670</t>
+  </si>
+  <si>
+    <t>KIWOOM 코스닥150</t>
+  </si>
+  <si>
+    <t>396510</t>
+  </si>
+  <si>
+    <t>TIGER 차이나클린에너지SOLACTIVE</t>
+  </si>
+  <si>
+    <t>417450</t>
+  </si>
+  <si>
+    <t>RISE 글로벌수소경제</t>
+  </si>
+  <si>
+    <t>185680</t>
+  </si>
+  <si>
+    <t>KODEX 미국S&amp;P바이오(합성)</t>
   </si>
   <si>
     <t>223190</t>
@@ -874,12 +1090,6 @@
     <t>KIWOOM 코스피100</t>
   </si>
   <si>
-    <t>469050</t>
-  </si>
-  <si>
-    <t>RISE 미국반도체NYSE(H)</t>
-  </si>
-  <si>
     <t>407310</t>
   </si>
   <si>
@@ -892,18 +1102,18 @@
     <t>ITF 200</t>
   </si>
   <si>
+    <t>326230</t>
+  </si>
+  <si>
+    <t>RISE 내수주플러스</t>
+  </si>
+  <si>
     <t>442090</t>
   </si>
   <si>
     <t>에셋플러스 코리아대장장이액티브</t>
   </si>
   <si>
-    <t>326230</t>
-  </si>
-  <si>
-    <t>RISE 내수주플러스</t>
-  </si>
-  <si>
     <t>145850</t>
   </si>
   <si>
@@ -916,10 +1126,16 @@
     <t>ACE 2차전지&amp;친환경차액티브</t>
   </si>
   <si>
-    <t>450190</t>
-  </si>
-  <si>
-    <t>KODEX 한중반도체(합성)</t>
+    <t>0105D0</t>
+  </si>
+  <si>
+    <t>SOL 한국AI소프트웨어</t>
+  </si>
+  <si>
+    <t>0094M0</t>
+  </si>
+  <si>
+    <t>RISE 코리아밸류업위클리고정커버드콜</t>
   </si>
   <si>
     <t>387280</t>
@@ -928,22 +1144,22 @@
     <t>TIGER 퓨처모빌리티액티브</t>
   </si>
   <si>
-    <t>440340</t>
-  </si>
-  <si>
-    <t>TIGER 글로벌멀티에셋TIF액티브</t>
-  </si>
-  <si>
     <t>391670</t>
   </si>
   <si>
     <t>HK 베스트일레븐액티브</t>
   </si>
   <si>
-    <t>496120</t>
-  </si>
-  <si>
-    <t>ACE 코리아밸류업</t>
+    <t>304770</t>
+  </si>
+  <si>
+    <t>HANARO 코스닥150</t>
+  </si>
+  <si>
+    <t>300610</t>
+  </si>
+  <si>
+    <t>TIGER K게임</t>
   </si>
   <si>
     <t>491510</t>
@@ -952,16 +1168,28 @@
     <t>파워 K-주주가치액티브</t>
   </si>
   <si>
+    <t>226980</t>
+  </si>
+  <si>
+    <t>KODEX 200 중소형</t>
+  </si>
+  <si>
+    <t>404260</t>
+  </si>
+  <si>
+    <t>KODEX 기후변화솔루션</t>
+  </si>
+  <si>
     <t>465660</t>
   </si>
   <si>
     <t>TIGER 일본반도체FACTSET</t>
   </si>
   <si>
-    <t>291130</t>
-  </si>
-  <si>
-    <t>ACE MSCI멕시코(합성)</t>
+    <t>407820</t>
+  </si>
+  <si>
+    <t>에셋플러스 코리아플랫폼액티브</t>
   </si>
   <si>
     <t>446690</t>
@@ -970,28 +1198,16 @@
     <t>KODEX 아시아AI반도체exChina액티브</t>
   </si>
   <si>
-    <t>376410</t>
-  </si>
-  <si>
-    <t>TIGER 탄소효율그린뉴딜</t>
-  </si>
-  <si>
-    <t>292500</t>
-  </si>
-  <si>
-    <t>SOL KRX300</t>
-  </si>
-  <si>
     <t>284980</t>
   </si>
   <si>
     <t>RISE 200금융</t>
   </si>
   <si>
-    <t>292160</t>
-  </si>
-  <si>
-    <t>TIGER KRX300</t>
+    <t>419420</t>
+  </si>
+  <si>
+    <t>KODEX 미국클린에너지나스닥</t>
   </si>
   <si>
     <t>446700</t>
@@ -1006,16 +1222,28 @@
     <t>TIGER 은행</t>
   </si>
   <si>
+    <t>464610</t>
+  </si>
+  <si>
+    <t>SOL 의료기기소부장Fn</t>
+  </si>
+  <si>
+    <t>219390</t>
+  </si>
+  <si>
+    <t>RISE 미국S&amp;P원유생산기업(합성 H)</t>
+  </si>
+  <si>
     <t>337150</t>
   </si>
   <si>
     <t>KODEX 200exTOP</t>
   </si>
   <si>
-    <t>159800</t>
-  </si>
-  <si>
-    <t>마이티 코스피100</t>
+    <t>276000</t>
+  </si>
+  <si>
+    <t>TIGER 글로벌자원생산기업(합성 H)</t>
   </si>
   <si>
     <t>381560</t>
@@ -1048,36 +1276,36 @@
     <t>KIWOOM 블루칩</t>
   </si>
   <si>
-    <t>289040</t>
-  </si>
-  <si>
-    <t>KODEX MSCI KOREA ESG유니버설</t>
-  </si>
-  <si>
     <t>457930</t>
   </si>
   <si>
     <t>BNK 미래전략기술액티브</t>
   </si>
   <si>
-    <t>337120</t>
-  </si>
-  <si>
-    <t>KODEX 멀티팩터</t>
-  </si>
-  <si>
     <t>108590</t>
   </si>
   <si>
     <t>TREX 200</t>
   </si>
   <si>
+    <t>0001P0</t>
+  </si>
+  <si>
+    <t>마이티 바이오시밀러&amp;CDMO액티브</t>
+  </si>
+  <si>
     <t>192720</t>
   </si>
   <si>
     <t>파워 고배당저변동성</t>
   </si>
   <si>
+    <t>0150K0</t>
+  </si>
+  <si>
+    <t>KoAct 수소전력ESS인프라액티브</t>
+  </si>
+  <si>
     <t>229720</t>
   </si>
   <si>
@@ -1090,16 +1318,10 @@
     <t>KODEX 필수소비재</t>
   </si>
   <si>
-    <t>464600</t>
-  </si>
-  <si>
-    <t>SOL 자동차소부장Fn</t>
-  </si>
-  <si>
-    <t>367740</t>
-  </si>
-  <si>
-    <t>HANARO Fn5G산업</t>
+    <t>304760</t>
+  </si>
+  <si>
+    <t>HANARO KRX300</t>
   </si>
   <si>
     <t>227830</t>
@@ -1114,6 +1336,12 @@
     <t>TIME K신재생에너지액티브</t>
   </si>
   <si>
+    <t>395150</t>
+  </si>
+  <si>
+    <t>KODEX 웹툰&amp;드라마</t>
+  </si>
+  <si>
     <t>140580</t>
   </si>
   <si>
@@ -1126,40 +1354,70 @@
     <t>VITA 밸류알파액티브</t>
   </si>
   <si>
+    <t>472720</t>
+  </si>
+  <si>
+    <t>TRUSTON 주주가치액티브</t>
+  </si>
+  <si>
+    <t>445910</t>
+  </si>
+  <si>
+    <t>TIGER MKF배당귀족</t>
+  </si>
+  <si>
     <t>466810</t>
   </si>
   <si>
     <t>BNK 2차전지양극재</t>
   </si>
   <si>
-    <t>292050</t>
-  </si>
-  <si>
-    <t>RISE KRX300</t>
-  </si>
-  <si>
     <t>234310</t>
   </si>
   <si>
     <t>RISE V&amp;S셀렉트밸류</t>
   </si>
   <si>
+    <t>404650</t>
+  </si>
+  <si>
+    <t>SOL KRX기후변화솔루션</t>
+  </si>
+  <si>
     <t>373490</t>
   </si>
   <si>
     <t>KODEX 코리아혁신성장액티브</t>
   </si>
   <si>
+    <t>449680</t>
+  </si>
+  <si>
+    <t>TIGER 한중전기차(합성)</t>
+  </si>
+  <si>
+    <t>0053M0</t>
+  </si>
+  <si>
+    <t>더제이 중소형포커스액티브</t>
+  </si>
+  <si>
     <t>280920</t>
   </si>
   <si>
     <t>PLUS 주도업종</t>
   </si>
   <si>
-    <t>449680</t>
-  </si>
-  <si>
-    <t>TIGER 한중전기차(합성)</t>
+    <t>285690</t>
+  </si>
+  <si>
+    <t>FOCUS ESG리더스</t>
+  </si>
+  <si>
+    <t>0120J0</t>
+  </si>
+  <si>
+    <t>BNK 카카오그룹포커스</t>
   </si>
   <si>
     <t>279540</t>
@@ -1168,10 +1426,10 @@
     <t>KODEX 최소변동성</t>
   </si>
   <si>
-    <t>469160</t>
-  </si>
-  <si>
-    <t>ACE 일본반도체</t>
+    <t>0131A0</t>
+  </si>
+  <si>
+    <t>SOL 차이나소비트렌드</t>
   </si>
   <si>
     <t>385710</t>
@@ -1186,12 +1444,24 @@
     <t>TIGER KTOP30</t>
   </si>
   <si>
+    <t>490330</t>
+  </si>
+  <si>
+    <t>KoAct 미국치매&amp;뇌질환치료제액티브</t>
+  </si>
+  <si>
     <t>266390</t>
   </si>
   <si>
     <t>KODEX 경기소비재</t>
   </si>
   <si>
+    <t>252650</t>
+  </si>
+  <si>
+    <t>KODEX 200동일가중</t>
+  </si>
+  <si>
     <t>450180</t>
   </si>
   <si>
@@ -1210,12 +1480,36 @@
     <t>RISE 수출주</t>
   </si>
   <si>
+    <t>334690</t>
+  </si>
+  <si>
+    <t>RISE 팔라듐선물(H)</t>
+  </si>
+  <si>
     <t>139290</t>
   </si>
   <si>
     <t>TIGER 200 경기소비재</t>
   </si>
   <si>
+    <t>433250</t>
+  </si>
+  <si>
+    <t>UNICORN R&amp;D 액티브</t>
+  </si>
+  <si>
+    <t>139240</t>
+  </si>
+  <si>
+    <t>TIGER 200 철강소재</t>
+  </si>
+  <si>
+    <t>413220</t>
+  </si>
+  <si>
+    <t>SOL 차이나태양광CSI(합성)</t>
+  </si>
+  <si>
     <t>381570</t>
   </si>
   <si>
@@ -1234,34 +1528,118 @@
     <t>TIGER 의료기기</t>
   </si>
   <si>
+    <t>404540</t>
+  </si>
+  <si>
+    <t>TIGER KRX기후변화솔루션</t>
+  </si>
+  <si>
     <t>488200</t>
   </si>
   <si>
     <t>KIWOOM K-2차전지북미공급망</t>
   </si>
   <si>
+    <t>301400</t>
+  </si>
+  <si>
+    <t>PLUS 코스닥150</t>
+  </si>
+  <si>
+    <t>244670</t>
+  </si>
+  <si>
+    <t>KODEX 밸류Plus</t>
+  </si>
+  <si>
+    <t>427120</t>
+  </si>
+  <si>
+    <t>RISE AI플랫폼</t>
+  </si>
+  <si>
     <t>402460</t>
   </si>
   <si>
     <t>HANARO Fn K-메타버스MZ</t>
   </si>
   <si>
+    <t>243890</t>
+  </si>
+  <si>
+    <t>TIGER 200에너지화학레버리지</t>
+  </si>
+  <si>
     <t>227570</t>
   </si>
   <si>
     <t>TIGER 우량가치</t>
   </si>
   <si>
-    <t>243890</t>
-  </si>
-  <si>
-    <t>TIGER 200에너지화학레버리지</t>
+    <t>314700</t>
+  </si>
+  <si>
+    <t>HANARO 농업융복합산업</t>
+  </si>
+  <si>
+    <t>476310</t>
+  </si>
+  <si>
+    <t>RISE 글로벌비만산업TOP2+</t>
+  </si>
+  <si>
+    <t>220130</t>
+  </si>
+  <si>
+    <t>SOL 차이나강소기업CSI500(합성 H)</t>
+  </si>
+  <si>
+    <t>315270</t>
+  </si>
+  <si>
+    <t>TIGER 200커뮤니케이션서비스</t>
+  </si>
+  <si>
+    <t>174350</t>
+  </si>
+  <si>
+    <t>TIGER 로우볼</t>
+  </si>
+  <si>
+    <t>226380</t>
+  </si>
+  <si>
+    <t>ACE Fn성장소비주도주</t>
+  </si>
+  <si>
+    <t>306530</t>
+  </si>
+  <si>
+    <t>HANARO 코스닥150선물레버리지</t>
   </si>
   <si>
     <t>227560</t>
   </si>
   <si>
     <t>TIGER 200 생활소비재</t>
+  </si>
+  <si>
+    <t>277650</t>
+  </si>
+  <si>
+    <t>TIGER 코스피중형주</t>
+  </si>
+  <si>
+    <t>252000</t>
+  </si>
+  <si>
+    <t>TIGER 200동일가중</t>
+  </si>
+  <si>
+    <t>291630</t>
+  </si>
+  <si>
+    <t>KIWOOM 코스닥150선물레버리지</t>
   </si>
 </sst>
 </file>
@@ -1608,15 +1986,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B207"/>
+  <dimension ref="A1:B270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="39.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -3275,6 +3653,510 @@
         <v>413</v>
       </c>
     </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>414</v>
+      </c>
+      <c r="B208" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>416</v>
+      </c>
+      <c r="B209" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>418</v>
+      </c>
+      <c r="B210" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>420</v>
+      </c>
+      <c r="B211" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>424</v>
+      </c>
+      <c r="B213" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>426</v>
+      </c>
+      <c r="B214" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>428</v>
+      </c>
+      <c r="B215" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>430</v>
+      </c>
+      <c r="B216" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>432</v>
+      </c>
+      <c r="B217" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>434</v>
+      </c>
+      <c r="B218" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>436</v>
+      </c>
+      <c r="B219" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>438</v>
+      </c>
+      <c r="B220" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
+        <v>440</v>
+      </c>
+      <c r="B221" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>442</v>
+      </c>
+      <c r="B222" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>444</v>
+      </c>
+      <c r="B223" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>446</v>
+      </c>
+      <c r="B224" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>448</v>
+      </c>
+      <c r="B225" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>450</v>
+      </c>
+      <c r="B226" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>452</v>
+      </c>
+      <c r="B227" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>454</v>
+      </c>
+      <c r="B228" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>456</v>
+      </c>
+      <c r="B229" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>458</v>
+      </c>
+      <c r="B230" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>460</v>
+      </c>
+      <c r="B231" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
+        <v>462</v>
+      </c>
+      <c r="B232" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
+        <v>464</v>
+      </c>
+      <c r="B233" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>466</v>
+      </c>
+      <c r="B234" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
+        <v>468</v>
+      </c>
+      <c r="B235" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>470</v>
+      </c>
+      <c r="B236" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>472</v>
+      </c>
+      <c r="B237" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>474</v>
+      </c>
+      <c r="B238" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>476</v>
+      </c>
+      <c r="B239" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>478</v>
+      </c>
+      <c r="B240" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>480</v>
+      </c>
+      <c r="B241" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>482</v>
+      </c>
+      <c r="B242" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>484</v>
+      </c>
+      <c r="B243" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>486</v>
+      </c>
+      <c r="B244" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>488</v>
+      </c>
+      <c r="B245" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>490</v>
+      </c>
+      <c r="B246" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
+        <v>492</v>
+      </c>
+      <c r="B247" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
+        <v>494</v>
+      </c>
+      <c r="B248" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
+        <v>496</v>
+      </c>
+      <c r="B249" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>498</v>
+      </c>
+      <c r="B250" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
+        <v>500</v>
+      </c>
+      <c r="B251" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
+        <v>502</v>
+      </c>
+      <c r="B252" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>504</v>
+      </c>
+      <c r="B253" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>506</v>
+      </c>
+      <c r="B254" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>508</v>
+      </c>
+      <c r="B255" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
+        <v>510</v>
+      </c>
+      <c r="B256" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
+        <v>512</v>
+      </c>
+      <c r="B257" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>514</v>
+      </c>
+      <c r="B258" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>516</v>
+      </c>
+      <c r="B259" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
+        <v>518</v>
+      </c>
+      <c r="B260" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
+        <v>520</v>
+      </c>
+      <c r="B261" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>522</v>
+      </c>
+      <c r="B262" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A263" t="s">
+        <v>524</v>
+      </c>
+      <c r="B263" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
+        <v>526</v>
+      </c>
+      <c r="B264" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
+        <v>528</v>
+      </c>
+      <c r="B265" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>530</v>
+      </c>
+      <c r="B266" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A267" t="s">
+        <v>532</v>
+      </c>
+      <c r="B267" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A268" t="s">
+        <v>534</v>
+      </c>
+      <c r="B268" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A269" t="s">
+        <v>536</v>
+      </c>
+      <c r="B269" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A270" t="s">
+        <v>538</v>
+      </c>
+      <c r="B270" t="s">
+        <v>539</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
